--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ifna11-Ifnar1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ifna11-Ifnar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Ifna11</t>
+  </si>
+  <si>
+    <t>Ifnar1</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ifna11</t>
-  </si>
-  <si>
-    <t>Ifnar1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,10 +546,10 @@
         <v>0.463307</v>
       </c>
       <c r="I2">
-        <v>0.9179194668103722</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9179194668103722</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.20338333333333</v>
+        <v>16.82700666666667</v>
       </c>
       <c r="N2">
-        <v>63.61015</v>
+        <v>50.48102</v>
       </c>
       <c r="O2">
-        <v>0.1585031951394179</v>
+        <v>0.1252829202765328</v>
       </c>
       <c r="P2">
-        <v>0.1619144072927482</v>
+        <v>0.1283458604125</v>
       </c>
       <c r="Q2">
-        <v>3.274558640672222</v>
+        <v>2.598689992571111</v>
       </c>
       <c r="R2">
-        <v>29.47102776605</v>
+        <v>23.38820993314</v>
       </c>
       <c r="S2">
-        <v>0.1454931683701149</v>
+        <v>0.1252829202765328</v>
       </c>
       <c r="T2">
-        <v>0.1486243864110769</v>
+        <v>0.1283458604125</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.463307</v>
       </c>
       <c r="I3">
-        <v>0.9179194668103722</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9179194668103722</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>60.35221800000001</v>
       </c>
       <c r="O3">
-        <v>0.1503851097152057</v>
+        <v>0.1497810883418348</v>
       </c>
       <c r="P3">
-        <v>0.1536216092286016</v>
+        <v>0.1534429642470134</v>
       </c>
       <c r="Q3">
         <v>3.106845007214</v>
@@ -638,10 +638,10 @@
         <v>27.961605064926</v>
       </c>
       <c r="S3">
-        <v>0.1380414197260009</v>
+        <v>0.1497810883418348</v>
       </c>
       <c r="T3">
-        <v>0.1410122656336693</v>
+        <v>0.1534429642470134</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,10 +670,10 @@
         <v>0.463307</v>
       </c>
       <c r="I4">
-        <v>0.9179194668103722</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9179194668103722</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.321269</v>
+        <v>51.48756166666666</v>
       </c>
       <c r="N4">
-        <v>114.963807</v>
+        <v>154.462685</v>
       </c>
       <c r="O4">
-        <v>0.2864657721274259</v>
+        <v>0.3833428138051528</v>
       </c>
       <c r="P4">
-        <v>0.2926309192876121</v>
+        <v>0.3927148502140002</v>
       </c>
       <c r="Q4">
-        <v>5.918170725527667</v>
+        <v>7.951515911032778</v>
       </c>
       <c r="R4">
-        <v>53.263536529749</v>
+        <v>71.563643199295</v>
       </c>
       <c r="S4">
-        <v>0.2629525088106283</v>
+        <v>0.3833428138051528</v>
       </c>
       <c r="T4">
-        <v>0.268611617404714</v>
+        <v>0.3927148502140002</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,10 +732,10 @@
         <v>0.463307</v>
       </c>
       <c r="I5">
-        <v>0.9179194668103722</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9179194668103722</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.4549615</v>
+        <v>9.6159655</v>
       </c>
       <c r="N5">
-        <v>16.909923</v>
+        <v>19.231931</v>
       </c>
       <c r="O5">
-        <v>0.06320398926259876</v>
+        <v>0.07159420941484877</v>
       </c>
       <c r="P5">
-        <v>0.04304281879402911</v>
+        <v>0.04889637197482995</v>
       </c>
       <c r="Q5">
-        <v>1.3057476158935</v>
+        <v>1.485048042636167</v>
       </c>
       <c r="R5">
-        <v>7.834485695360999</v>
+        <v>8.910288255817001</v>
       </c>
       <c r="S5">
-        <v>0.05801617212421314</v>
+        <v>0.07159420941484877</v>
       </c>
       <c r="T5">
-        <v>0.03950984127743067</v>
+        <v>0.04889637197482995</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -794,10 +794,10 @@
         <v>0.463307</v>
       </c>
       <c r="I6">
-        <v>0.9179194668103722</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.9179194668103722</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,338 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.67557266666667</v>
+        <v>36.26411666666667</v>
       </c>
       <c r="N6">
-        <v>137.026718</v>
+        <v>108.79235</v>
       </c>
       <c r="O6">
-        <v>0.3414419337553518</v>
+        <v>0.2699989681616309</v>
       </c>
       <c r="P6">
-        <v>0.348790245397009</v>
+        <v>0.2765999531516566</v>
       </c>
       <c r="Q6">
-        <v>7.053937515158446</v>
+        <v>5.600473033494445</v>
       </c>
       <c r="R6">
-        <v>63.48543763642601</v>
+        <v>50.40425730145</v>
       </c>
       <c r="S6">
-        <v>0.3134161977794149</v>
+        <v>0.2699989681616309</v>
       </c>
       <c r="T6">
-        <v>0.3201613560834814</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.01380966666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.041429</v>
-      </c>
-      <c r="I7">
-        <v>0.08208053318962784</v>
-      </c>
-      <c r="J7">
-        <v>0.08208053318962785</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>21.20338333333333</v>
-      </c>
-      <c r="N7">
-        <v>63.61015</v>
-      </c>
-      <c r="O7">
-        <v>0.1585031951394179</v>
-      </c>
-      <c r="P7">
-        <v>0.1619144072927482</v>
-      </c>
-      <c r="Q7">
-        <v>0.2928116560388889</v>
-      </c>
-      <c r="R7">
-        <v>2.63530490435</v>
-      </c>
-      <c r="S7">
-        <v>0.01301002676930305</v>
-      </c>
-      <c r="T7">
-        <v>0.01329002088167134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.01380966666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.041429</v>
-      </c>
-      <c r="I8">
-        <v>0.08208053318962784</v>
-      </c>
-      <c r="J8">
-        <v>0.08208053318962785</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>20.117406</v>
-      </c>
-      <c r="N8">
-        <v>60.35221800000001</v>
-      </c>
-      <c r="O8">
-        <v>0.1503851097152057</v>
-      </c>
-      <c r="P8">
-        <v>0.1536216092286016</v>
-      </c>
-      <c r="Q8">
-        <v>0.277814671058</v>
-      </c>
-      <c r="R8">
-        <v>2.500332039522001</v>
-      </c>
-      <c r="S8">
-        <v>0.01234368998920476</v>
-      </c>
-      <c r="T8">
-        <v>0.01260934359493227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.01380966666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.041429</v>
-      </c>
-      <c r="I9">
-        <v>0.08208053318962784</v>
-      </c>
-      <c r="J9">
-        <v>0.08208053318962785</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>38.321269</v>
-      </c>
-      <c r="N9">
-        <v>114.963807</v>
-      </c>
-      <c r="O9">
-        <v>0.2864657721274259</v>
-      </c>
-      <c r="P9">
-        <v>0.2926309192876121</v>
-      </c>
-      <c r="Q9">
-        <v>0.5292039511336667</v>
-      </c>
-      <c r="R9">
-        <v>4.762835560203</v>
-      </c>
-      <c r="S9">
-        <v>0.02351326331679754</v>
-      </c>
-      <c r="T9">
-        <v>0.02401930188289815</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.01380966666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.041429</v>
-      </c>
-      <c r="I10">
-        <v>0.08208053318962784</v>
-      </c>
-      <c r="J10">
-        <v>0.08208053318962785</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>8.4549615</v>
-      </c>
-      <c r="N10">
-        <v>16.909923</v>
-      </c>
-      <c r="O10">
-        <v>0.06320398926259876</v>
-      </c>
-      <c r="P10">
-        <v>0.04304281879402911</v>
-      </c>
-      <c r="Q10">
-        <v>0.1167601999945</v>
-      </c>
-      <c r="R10">
-        <v>0.7005611999669999</v>
-      </c>
-      <c r="S10">
-        <v>0.00518781713838562</v>
-      </c>
-      <c r="T10">
-        <v>0.003532977516598444</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.01380966666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.041429</v>
-      </c>
-      <c r="I11">
-        <v>0.08208053318962784</v>
-      </c>
-      <c r="J11">
-        <v>0.08208053318962785</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>45.67557266666667</v>
-      </c>
-      <c r="N11">
-        <v>137.026718</v>
-      </c>
-      <c r="O11">
-        <v>0.3414419337553518</v>
-      </c>
-      <c r="P11">
-        <v>0.348790245397009</v>
-      </c>
-      <c r="Q11">
-        <v>0.6307644333357779</v>
-      </c>
-      <c r="R11">
-        <v>5.676879900022</v>
-      </c>
-      <c r="S11">
-        <v>0.02802573597593687</v>
-      </c>
-      <c r="T11">
-        <v>0.02862888931352764</v>
+        <v>0.2765999531516566</v>
       </c>
     </row>
   </sheetData>
